--- a/src/test/resources/data/input.xlsx
+++ b/src/test/resources/data/input.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ValidLogin" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,9 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">Channa</t>
+    <t xml:space="preserve">UserName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FailMsg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Page is not displayed</t>
   </si>
 </sst>
 </file>
@@ -32,7 +47,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -54,6 +69,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,7 +126,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -124,17 +147,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.86"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
